--- a/TrelloClone-master/files/SMART-задачи_список_сотрудников.xlsx
+++ b/TrelloClone-master/files/SMART-задачи_список_сотрудников.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{113E50AA-377D-406F-83C9-5C2208D545FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -14,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">СВОД!$B$2:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>Начальник управления</t>
   </si>
@@ -339,12 +338,15 @@
   </si>
   <si>
     <t>Директор по управлению персоналом</t>
+  </si>
+  <si>
+    <t>Томчик Я.М.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,11 +477,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 280 3" xfId="3" xr:uid="{A384F1DF-B5AD-4690-AED3-44C2C536D0D1}"/>
-    <cellStyle name="Обычный 4" xfId="4" xr:uid="{15CA12BA-5B55-46B6-821E-9F357B82F864}"/>
-    <cellStyle name="Обычный 5" xfId="2" xr:uid="{0BBCC33D-EDF0-46C7-91C1-BCB1C3556646}"/>
-    <cellStyle name="Обычный 6" xfId="1" xr:uid="{84B3EB0B-DC67-47C5-BD77-D91A4090D324}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 280 3" xfId="3"/>
+    <cellStyle name="Обычный 4" xfId="4"/>
+    <cellStyle name="Обычный 5" xfId="2"/>
+    <cellStyle name="Обычный 6" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,9 +502,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Автор" refreshedDate="45092.410067129633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="145" xr:uid="{84DF78D8-5401-4FD7-AE36-8D63A9EC96B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45092.410067129633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="145">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:E38" sheet="СВОД"/>
+    <worksheetSource ref="B2:E38" sheet="СВОД" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="ФИО работника" numFmtId="0">
@@ -598,7 +600,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="145">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="145">
   <r>
     <s v="Евтушевский П.А."/>
     <x v="0"/>
@@ -2053,7 +2055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A44A912-87E2-480C-BA5C-CA85A307BDEC}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2576,7 +2578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31947ED7-CEF4-47BC-8D02-20F9395F5305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3655,14 +3657,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4195,8 +4197,22 @@
         <v>90</v>
       </c>
     </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:E38" xr:uid="{EE9C3EFB-E5E2-4E69-89CF-FD39318B0980}"/>
+  <autoFilter ref="B2:E38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TrelloClone-master/files/SMART-задачи_список_сотрудников.xlsx
+++ b/TrelloClone-master/files/SMART-задачи_список_сотрудников.xlsx
@@ -464,7 +464,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/TrelloClone-master/files/SMART-задачи_список_сотрудников.xlsx
+++ b/TrelloClone-master/files/SMART-задачи_список_сотрудников.xlsx
@@ -10,7 +10,7 @@
     <sheet name="СВОД" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">СВОД!$B$2:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">СВОД!$B$2:$E$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,11 +22,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>Начальник управления</t>
   </si>
   <si>
+    <t>Начальник отдела</t>
+  </si>
+  <si>
+    <t>УРМ</t>
+  </si>
+  <si>
+    <t>УРПА</t>
+  </si>
+  <si>
+    <t>УКМКК</t>
+  </si>
+  <si>
+    <t>УЭКПФЛ</t>
+  </si>
+  <si>
+    <t>УВА</t>
+  </si>
+  <si>
+    <t>Начальник центра</t>
+  </si>
+  <si>
+    <t>ЦАР</t>
+  </si>
+  <si>
+    <t>ЦУБП</t>
+  </si>
+  <si>
+    <t>УКА</t>
+  </si>
+  <si>
+    <t>УМР</t>
+  </si>
+  <si>
+    <t>УРКО</t>
+  </si>
+  <si>
+    <t>УД</t>
+  </si>
+  <si>
+    <t>УКО</t>
+  </si>
+  <si>
     <t>ФИО работника</t>
   </si>
   <si>
@@ -36,29 +78,227 @@
     <t>Наименование ССП</t>
   </si>
   <si>
+    <t>ФЭУ</t>
+  </si>
+  <si>
+    <t>УМСТ</t>
+  </si>
+  <si>
     <t>УОП</t>
   </si>
   <si>
+    <t>УРП</t>
+  </si>
+  <si>
+    <t>УИнБ</t>
+  </si>
+  <si>
+    <t>ОСИТД</t>
+  </si>
+  <si>
+    <t>УРВИРК</t>
+  </si>
+  <si>
+    <t>ЦУП</t>
+  </si>
+  <si>
+    <t>УМиЛ</t>
+  </si>
+  <si>
+    <t>УМБ</t>
+  </si>
+  <si>
+    <t>УБПК</t>
+  </si>
+  <si>
+    <t>УЭИС</t>
+  </si>
+  <si>
+    <t>УЭКПСКБ</t>
+  </si>
+  <si>
+    <t>УРПСП</t>
+  </si>
+  <si>
+    <t>УПРБ</t>
+  </si>
+  <si>
+    <t>УОРК</t>
+  </si>
+  <si>
+    <t>УИБ</t>
+  </si>
+  <si>
+    <t>УМ</t>
+  </si>
+  <si>
+    <t>УБ</t>
+  </si>
+  <si>
+    <t>ЮУ</t>
+  </si>
+  <si>
     <t>АДМ</t>
   </si>
   <si>
     <t>Непосредственный руководитель</t>
   </si>
   <si>
+    <t>Директор по информационным технологиям</t>
+  </si>
+  <si>
     <t>Директор по управлению персоналом</t>
   </si>
   <si>
+    <t>Ивлиев Денис Олегович</t>
+  </si>
+  <si>
+    <t>Глушук Ирина Анатольевна</t>
+  </si>
+  <si>
+    <t>Левакова Маргарита Михайловна</t>
+  </si>
+  <si>
+    <t>Гладкова Ирина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Варивончик Павел Юрьевич</t>
+  </si>
+  <si>
+    <t>Мазовка Анна Викторовна</t>
+  </si>
+  <si>
+    <t>Козляковская Наталья Васильевна</t>
+  </si>
+  <si>
+    <t>Сурдова Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Желнерович Галина Павловна</t>
+  </si>
+  <si>
+    <t>Макарова Ольга Александровна</t>
+  </si>
+  <si>
+    <t>Кадушко Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>Шаварина Ирина Григорьевна</t>
+  </si>
+  <si>
+    <t>Лущиков Алексей Михайлович</t>
+  </si>
+  <si>
+    <t>Цедрик Ирина Николаевна</t>
+  </si>
+  <si>
     <t>Глушко Надежда Анатольевна</t>
   </si>
   <si>
+    <t>Затковская Мария Георгиевна</t>
+  </si>
+  <si>
+    <t>Величко Кирилл Владимирович</t>
+  </si>
+  <si>
+    <t>Сосновская Анастасия Анатольевна</t>
+  </si>
+  <si>
+    <t>Субоч Алексей Леонидович</t>
+  </si>
+  <si>
+    <t>Михалёв Сергей Владимирович</t>
+  </si>
+  <si>
+    <t>Евлашкин Дмитрий Евгеньевич</t>
+  </si>
+  <si>
+    <t>Сурдо Наталья Александровна</t>
+  </si>
+  <si>
+    <t>Малашёнок Марина Сергеевна</t>
+  </si>
+  <si>
+    <t>Дмуховская Юлия Павловна</t>
+  </si>
+  <si>
+    <t>Носов Юрий Вячеславович</t>
+  </si>
+  <si>
+    <t>Януть Вера Игоревна</t>
+  </si>
+  <si>
+    <t>Дорошенко Эдита Андреевна</t>
+  </si>
+  <si>
+    <t>Приходько Александр Викторович</t>
+  </si>
+  <si>
+    <t>Езерская Виолетта Тадеушевна</t>
+  </si>
+  <si>
+    <t>Абрамов Олег Владимирович</t>
+  </si>
+  <si>
+    <t>Грицель Александр Александрович</t>
+  </si>
+  <si>
+    <t>Карпович Александр Михайлович</t>
+  </si>
+  <si>
     <t>Полякова Инна Юлиановна</t>
+  </si>
+  <si>
+    <t>Сидорик Евгений Дмитриевич</t>
+  </si>
+  <si>
+    <t>Вертинская Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Шидлович Дмитрий Петрович</t>
+  </si>
+  <si>
+    <t>Миркевич Светлана Иосифовна</t>
+  </si>
+  <si>
+    <t>Захватович Яна Геннадьевна</t>
+  </si>
+  <si>
+    <t>Казаченок Татьяна Васильевна</t>
+  </si>
+  <si>
+    <t>Цуран Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>Левченко Анна Петровна</t>
+  </si>
+  <si>
+    <t>Макеев Игорь Сергеевич</t>
+  </si>
+  <si>
+    <t>И.о. Начальника управления</t>
+  </si>
+  <si>
+    <t>Беганская Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Томчик Ян Михайлович</t>
+  </si>
+  <si>
+    <t>Главный специалист</t>
+  </si>
+  <si>
+    <t>ОРААСУП</t>
+  </si>
+  <si>
+    <t>Кривонос Сергей Эдуардович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +355,14 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +403,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -168,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -458,13 +709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:E5"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -477,48 +728,513 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E4"/>
+  <autoFilter ref="B2:E36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TrelloClone-master/files/SMART-задачи_список_сотрудников.xlsx
+++ b/TrelloClone-master/files/SMART-задачи_список_сотрудников.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95319E0B-B9DC-4952-99B1-4766A945C2AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СВОД" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">СВОД!$B$2:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">СВОД!$B$2:$E$31</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>Начальник управления</t>
   </si>
@@ -30,6 +31,9 @@
     <t>Начальник отдела</t>
   </si>
   <si>
+    <t>УКР</t>
+  </si>
+  <si>
     <t>УРМ</t>
   </si>
   <si>
@@ -81,18 +85,12 @@
     <t>ФЭУ</t>
   </si>
   <si>
-    <t>УМСТ</t>
-  </si>
-  <si>
     <t>УОП</t>
   </si>
   <si>
     <t>УРП</t>
   </si>
   <si>
-    <t>УИнБ</t>
-  </si>
-  <si>
     <t>ОСИТД</t>
   </si>
   <si>
@@ -129,15 +127,6 @@
     <t>УИБ</t>
   </si>
   <si>
-    <t>УМ</t>
-  </si>
-  <si>
-    <t>УБ</t>
-  </si>
-  <si>
-    <t>ЮУ</t>
-  </si>
-  <si>
     <t>АДМ</t>
   </si>
   <si>
@@ -147,7 +136,7 @@
     <t>Директор по информационным технологиям</t>
   </si>
   <si>
-    <t>Директор по управлению персоналом</t>
+    <t>Евтушевский Павел Алексеевич</t>
   </si>
   <si>
     <t>Ивлиев Денис Олегович</t>
@@ -189,18 +178,12 @@
     <t>Лущиков Алексей Михайлович</t>
   </si>
   <si>
-    <t>Цедрик Ирина Николаевна</t>
-  </si>
-  <si>
     <t>Глушко Надежда Анатольевна</t>
   </si>
   <si>
     <t>Затковская Мария Георгиевна</t>
   </si>
   <si>
-    <t>Величко Кирилл Владимирович</t>
-  </si>
-  <si>
     <t>Сосновская Анастасия Анатольевна</t>
   </si>
   <si>
@@ -234,15 +217,6 @@
     <t>Приходько Александр Викторович</t>
   </si>
   <si>
-    <t>Езерская Виолетта Тадеушевна</t>
-  </si>
-  <si>
-    <t>Абрамов Олег Владимирович</t>
-  </si>
-  <si>
-    <t>Грицель Александр Александрович</t>
-  </si>
-  <si>
     <t>Карпович Александр Михайлович</t>
   </si>
   <si>
@@ -282,7 +256,7 @@
     <t>Беганская Екатерина Александровна</t>
   </si>
   <si>
-    <t>Томчик Ян Михайлович</t>
+    <t>Сакирина Наталья Леонидовна</t>
   </si>
   <si>
     <t>Главный специалист</t>
@@ -297,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,11 +396,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 280 3" xfId="3"/>
-    <cellStyle name="Обычный 4" xfId="4"/>
-    <cellStyle name="Обычный 5" xfId="2"/>
-    <cellStyle name="Обычный 6" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 280 3" xfId="3" xr:uid="{A384F1DF-B5AD-4690-AED3-44C2C536D0D1}"/>
+    <cellStyle name="Обычный 4" xfId="4" xr:uid="{15CA12BA-5B55-46B6-821E-9F357B82F864}"/>
+    <cellStyle name="Обычный 5" xfId="2" xr:uid="{0BBCC33D-EDF0-46C7-91C1-BCB1C3556646}"/>
+    <cellStyle name="Обычный 6" xfId="1" xr:uid="{84B3EB0B-DC67-47C5-BD77-D91A4090D324}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -708,14 +682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -730,21 +704,21 @@
   <sheetData>
     <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -753,12 +727,12 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -767,12 +741,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -781,12 +755,12 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -795,12 +769,12 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -809,55 +783,55 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -866,12 +840,12 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -880,12 +854,12 @@
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -894,12 +868,12 @@
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -908,40 +882,40 @@
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -950,138 +924,138 @@
         <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -1090,12 +1064,12 @@
         <v>30</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -1104,12 +1078,12 @@
         <v>31</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -1118,12 +1092,12 @@
         <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -1132,109 +1106,39 @@
         <v>33</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E36"/>
+  <autoFilter ref="B2:E31" xr:uid="{EA889BD0-47F5-42A0-BF41-DCA21726D8FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
